--- a/templates/Otchet_1.xlsx
+++ b/templates/Otchet_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Project\Git_track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Project\Git_track\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D97DEF-1E40-4682-AD2A-E88C0060501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68CAAF0-1EC2-4EC1-85F9-98AEA9B8A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{99D61239-3935-41A1-B703-26A124861FA8}"/>
   </bookViews>
@@ -387,6 +387,51 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -394,51 +439,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,485 +758,475 @@
   <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
     </row>
     <row r="2" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
     </row>
     <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="4" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="4" t="s">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="4" t="s">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="4" t="s">
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="4" t="s">
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="4" t="s">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="6"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="15"/>
     </row>
     <row r="4" spans="1:53" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="8"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="8"/>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="8"/>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="7" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="V4" s="8"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="X4" s="8"/>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="7" t="s">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="7" t="s">
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="7" t="s">
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="9" t="s">
+      <c r="AO4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AP4" s="8"/>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="7" t="s">
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="9" t="s">
+      <c r="AU4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AV4" s="8"/>
-      <c r="AW4" s="9" t="s">
+      <c r="AW4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="9"/>
       <c r="AY4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BA4" s="13" t="s">
+      <c r="BA4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="6"/>
     </row>
     <row r="6" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="A1:BA1"/>
+    <mergeCell ref="A2:BA2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="AG3:AL3"/>
     <mergeCell ref="AM3:AR3"/>
     <mergeCell ref="AS3:AX3"/>
     <mergeCell ref="AY3:BA3"/>
@@ -1247,16 +1237,26 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A1:BA1"/>
-    <mergeCell ref="A2:BA2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AA3:AF3"/>
-    <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
